--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841300.6527507117</v>
+        <v>861811.2941875923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2820057.507897159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6917657.46877687</v>
+        <v>7416600.522562487</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>320.3483750877238</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -674,10 +676,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>170.4702993361922</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -817,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>103.8121020651557</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -908,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>105.5392640871573</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>226.0158089564188</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>62.83105835674517</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.7682651318491</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>243.8850116672399</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>237.4287186036729</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>225.0275833982057</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>186.1320522797925</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>43.14656565132002</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>218.7757544134943</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.8982442656982</v>
+        <v>116.7770917239385</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.0604045479101</v>
+        <v>168.3853228702216</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>156.8831777552855</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2953,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="E31" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>124.2290557831222</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3442,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.44275720140907</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>92.61264185836254</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>186.5146679205624</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3898,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>240.9256330117123</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>178.6464323367731</v>
       </c>
       <c r="X44" t="n">
-        <v>140.0871666311209</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>60.1546697496704</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1733.181423160076</v>
+        <v>2406.980029273935</v>
       </c>
       <c r="C2" t="n">
-        <v>1733.181423160076</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.888802345077</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E2" t="n">
-        <v>883.9118624929341</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>391.6307857727893</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>1107.139093748288</v>
       </c>
       <c r="L2" t="n">
-        <v>1474.987448089748</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="M2" t="n">
-        <v>2148.789099203062</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="N2" t="n">
-        <v>2148.789099203062</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="W2" t="n">
-        <v>2550.238692037439</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="X2" t="n">
-        <v>2138.518693205186</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="Y2" t="n">
-        <v>1733.181423160076</v>
+        <v>2826.828393565465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L3" t="n">
-        <v>433.5136365409612</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M3" t="n">
-        <v>1107.315287654275</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N3" t="n">
-        <v>1781.11693876759</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O3" t="n">
-        <v>1781.11693876759</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.5662971342737</v>
+        <v>2087.834155794793</v>
       </c>
       <c r="C4" t="n">
-        <v>325.5662971342737</v>
+        <v>1915.861592673709</v>
       </c>
       <c r="D4" t="n">
-        <v>325.5662971342737</v>
+        <v>1752.54481980048</v>
       </c>
       <c r="E4" t="n">
-        <v>325.5662971342737</v>
+        <v>1586.336613953333</v>
       </c>
       <c r="F4" t="n">
-        <v>220.7055879775508</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727894</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952052</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.18309045231</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.368885422561</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S4" t="n">
-        <v>2064.726598204046</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T4" t="n">
-        <v>1821.387250429946</v>
+        <v>3583.655109090465</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.20280193025</v>
+        <v>3303.47066059077</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.491334538279</v>
+        <v>3021.759193198799</v>
       </c>
       <c r="W4" t="n">
-        <v>984.6389307107922</v>
+        <v>2746.906789371312</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0750341565973</v>
+        <v>2504.342892817117</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.7322658463394</v>
+        <v>2278.000124506859</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1897.245279252508</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.344549265809</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D5" t="n">
-        <v>1047.051928450809</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E5" t="n">
-        <v>621.0749885986664</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F5" t="n">
-        <v>195.9508067880666</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>195.9508067880666</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>1764.655379315307</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M5" t="n">
-        <v>2266.345434084965</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="N5" t="n">
-        <v>2266.345434084965</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O5" t="n">
-        <v>2266.345434084965</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P5" t="n">
-        <v>2266.345434084965</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3366.589070215347</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3009.099655341596</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>3009.099655341596</v>
       </c>
       <c r="X5" t="n">
-        <v>2722.430913589148</v>
+        <v>2597.379656509343</v>
       </c>
       <c r="Y5" t="n">
-        <v>2317.093643544039</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L6" t="n">
-        <v>1189.334597738979</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M6" t="n">
-        <v>1189.334597738979</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.5276838214469</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>106.5551207003629</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D7" t="n">
-        <v>54.44861827178296</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="E7" t="n">
-        <v>54.44861827178296</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="F7" t="n">
-        <v>54.44861827178296</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X7" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y7" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1890.862550465365</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.961820478665</v>
+        <v>593.5529649262128</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.669199663666</v>
+        <v>170.260344111213</v>
       </c>
       <c r="E8" t="n">
-        <v>614.6922598115233</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="F8" t="n">
-        <v>189.5680780009235</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="G8" t="n">
-        <v>189.5680780009235</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N8" t="n">
-        <v>1402.051920498411</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.853571611725</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y8" t="n">
-        <v>2310.710914756895</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>101.1158936885242</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>990.8506408059272</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389.7379542660963</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>217.7653911450122</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>54.44861827178296</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>54.44861827178296</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>806.2466912884199</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.903922978162</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.057241349476</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C11" t="n">
-        <v>1308.057241349476</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="D11" t="n">
-        <v>884.7646205344768</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="E11" t="n">
-        <v>458.7876806823343</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L11" t="n">
-        <v>1090.853728201993</v>
+        <v>961.6325044602235</v>
       </c>
       <c r="M11" t="n">
-        <v>1090.853728201993</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N11" t="n">
-        <v>1374.82761136252</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U11" t="n">
-        <v>2482.60392510059</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V11" t="n">
-        <v>2125.114510226839</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W11" t="n">
-        <v>2125.114510226839</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X11" t="n">
-        <v>1713.394511394586</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.057241349476</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="M12" t="n">
-        <v>54.44861827178296</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="N12" t="n">
-        <v>728.2502693850971</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O12" t="n">
-        <v>1402.051920498411</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2187.823032372085</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>2187.823032372085</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>2187.823032372085</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>791.5529304648283</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C14" t="n">
-        <v>791.5529304648283</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D14" t="n">
-        <v>791.5529304648283</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E14" t="n">
-        <v>791.5529304648283</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F14" t="n">
-        <v>791.5529304648283</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="M14" t="n">
-        <v>918.7421318583365</v>
+        <v>2566.875559553126</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.543782971651</v>
+        <v>2749.74321699021</v>
       </c>
       <c r="O14" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>2138.783139103334</v>
+        <v>3367.587277849905</v>
       </c>
       <c r="V14" t="n">
-        <v>1781.293724229584</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="W14" t="n">
-        <v>1384.902374529931</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X14" t="n">
-        <v>1196.890200509938</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y14" t="n">
-        <v>791.5529304648283</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5513,37 +5515,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4798.855966881186</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2239.133351272169</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2068.998303791304</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1825.658956017204</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1545.474507517508</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1037.420271815279</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5765,37 +5767,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1446.844867123559</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3439.049592656653</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="C22" t="n">
-        <v>3439.049592656653</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="D22" t="n">
-        <v>3439.049592656653</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="E22" t="n">
-        <v>3272.841386809506</v>
+        <v>3100.979612584066</v>
       </c>
       <c r="F22" t="n">
-        <v>3100.979612584067</v>
+        <v>3100.979612584066</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y22" t="n">
-        <v>3439.049592656653</v>
+        <v>3457.353787143278</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>913.8534934449018</v>
+        <v>3918.135197142811</v>
       </c>
       <c r="C25" t="n">
-        <v>741.8809303238178</v>
+        <v>3746.162634021727</v>
       </c>
       <c r="D25" t="n">
-        <v>578.5641574505885</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E25" t="n">
-        <v>412.355951603442</v>
+        <v>3416.637655301351</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>3244.775881075911</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U25" t="n">
-        <v>1832.396244838396</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V25" t="n">
-        <v>1550.684777446425</v>
+        <v>4553.239754399759</v>
       </c>
       <c r="W25" t="n">
-        <v>1550.684777446425</v>
+        <v>4278.387350572272</v>
       </c>
       <c r="X25" t="n">
-        <v>1308.12088089223</v>
+        <v>4278.387350572272</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.019462156967</v>
+        <v>4108.301165854877</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6230,31 +6232,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6294,7 +6296,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>581.3883178919874</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>409.4157547709034</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2077.20927118766</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1797.024822687964</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1515.313355295993</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1240.460951468506</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>997.897054914311</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>771.554286604053</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491844</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281004</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="D31" t="n">
-        <v>208.2661037548711</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>418.0715450187581</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E34" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F34" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2157.23184608853</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.89249831443</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1633.708049814735</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1351.996582422764</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1077.144178595277</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>834.5802820410818</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>608.2375137308238</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4006.096290254794</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.4829827684</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>147.9967413610381</v>
+        <v>1961.590884272477</v>
       </c>
       <c r="C41" t="n">
-        <v>54.44861827178296</v>
+        <v>1534.690154285777</v>
       </c>
       <c r="D41" t="n">
-        <v>54.44861827178296</v>
+        <v>1111.397533470777</v>
       </c>
       <c r="E41" t="n">
-        <v>54.44861827178296</v>
+        <v>685.4205936186348</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>260.296411808035</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1374.82761136252</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M41" t="n">
-        <v>2048.629262475834</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N41" t="n">
-        <v>2722.430913589148</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>3198.496517441369</v>
       </c>
       <c r="X41" t="n">
-        <v>973.1823756976778</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y41" t="n">
-        <v>567.8451056525681</v>
+        <v>2381.439248564007</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M42" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N42" t="n">
-        <v>728.2502693850971</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="O42" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>536.363630694836</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C43" t="n">
-        <v>536.363630694836</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D43" t="n">
-        <v>536.363630694836</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E43" t="n">
-        <v>536.363630694836</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F43" t="n">
-        <v>364.5018564693964</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T43" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U43" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V43" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W43" t="n">
-        <v>969.0934959610967</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X43" t="n">
-        <v>726.5295994069018</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.5295994069018</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.743090736225</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="M44" t="n">
-        <v>2048.629262475834</v>
+        <v>2566.875559553126</v>
       </c>
       <c r="N44" t="n">
-        <v>2722.430913589148</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.430913589148</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2580.928725072864</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>2175.591455027755</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>2353.323727591968</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>2235.817824109472</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>2131.977865624758</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>2027.275931897695</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>1933.630101580599</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>1839.576329798203</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="L45" t="n">
-        <v>728.2502693850971</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>2675.934983677916</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>3565.669730795319</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.334597738979</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>3513.563619702277</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>3371.683683999955</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>3186.915487919592</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>2981.942349058858</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>2785.420971892075</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>2621.943625658738</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>2482.250737012031</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.0969517256838</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>705.334659049249</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>542.0178861760197</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>542.0178861760197</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2675.392300276321</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2505.257252795456</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2261.917905021356</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1981.73345652166</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.021989129689</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1425.169585302202</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.605688748007</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.2629204377495</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>352.382614465353</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>426.325900905103</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>405.4090445618843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>544.1888939798944</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>843.3123430463445</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8292,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>572.4151401474176</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>255.8057257768496</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>313.3732849564183</v>
       </c>
       <c r="P8" t="n">
-        <v>690.6837880500523</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>52.028355750294</v>
       </c>
       <c r="M9" t="n">
-        <v>488.8385263243295</v>
+        <v>921.8187472975835</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987971</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>667.4776809477909</v>
       </c>
       <c r="N11" t="n">
-        <v>324.1219290572006</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M14" t="n">
-        <v>229.8472855996736</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>221.9944283264504</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987971</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>106.1558042476775</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.8553498857486</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059673</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,16 +9482,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>443.1202251383856</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314398</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>220.0524529451672</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9878,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>229.9501690078907</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10431,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,10 +10445,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,7 +10600,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6953511146608</v>
+        <v>500.16489571931</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>578.380983679471</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059673</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>507.2052537942219</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>325.1543486553775</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>358.4540904862814</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987971</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>354.9577047674416</v>
       </c>
       <c r="P42" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,19 +11299,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M44" t="n">
-        <v>690.5396891392527</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>103.2506557184678</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11318,7 +11320,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>488.8385263243295</v>
+        <v>921.8187472975835</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987971</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>52.68515875828631</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>102.2833475991091</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>221.9571368664644</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,19 +22707,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.3310544180295</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22753,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>189.3504306535482</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>29.75555135313303</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>358.8861120968758</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>161.1214296088564</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>178.746711019593</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>18.34264170587889</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>30.74377691134609</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>221.4707465641377</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.421661528378557</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>53.32812537571778</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.18109636145721</v>
+        <v>107.3022489032168</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.01893607924524</v>
+        <v>55.69401775693379</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>84.02277654107348</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>63.52994056050392</v>
       </c>
       <c r="E31" t="n">
-        <v>59.64236734312286</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.20464122293424</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -25369,10 +25371,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>233.4515955166423</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>330.0190808284704</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658834</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>31.17824677749985</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25925,10 +25927,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658834</v>
       </c>
       <c r="X44" t="n">
-        <v>267.5156322128094</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0981677402027</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>480989.6592941112</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480989.6592941113</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480989.6592941113</v>
+        <v>566896.6549548549</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480989.6592941111</v>
+        <v>566896.6549548549</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480989.6592941112</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716588.7640002454</v>
+        <v>716588.7640002455</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716588.7640002454</v>
+        <v>716588.7640002455</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716588.7640002455</v>
+        <v>716588.7640002453</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480989.6592941112</v>
+        <v>566896.6549548549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480989.6592941113</v>
+        <v>566896.6549548549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179192.2260115315</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="C2" t="n">
-        <v>179192.2260115315</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="D2" t="n">
-        <v>179192.2260115316</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="E2" t="n">
-        <v>179192.2260115315</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="F2" t="n">
-        <v>179192.2260115316</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="G2" t="n">
+        <v>266964.4414902873</v>
+      </c>
+      <c r="H2" t="n">
         <v>266964.4414902874</v>
       </c>
-      <c r="H2" t="n">
-        <v>266964.4414902873</v>
-      </c>
       <c r="I2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="J2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="K2" t="n">
         <v>266964.4414902874</v>
@@ -26344,16 +26346,16 @@
         <v>266964.4414902873</v>
       </c>
       <c r="M2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="N2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
-        <v>179192.2260115315</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="P2" t="n">
-        <v>179192.2260115315</v>
+        <v>211196.7930223968</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="D4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="I4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="J4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="L4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="J4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="K4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124420.8846976497</v>
+        <v>-178875.880416356</v>
       </c>
       <c r="C6" t="n">
-        <v>103666.4190660344</v>
+        <v>122306.5212586192</v>
       </c>
       <c r="D6" t="n">
-        <v>103666.4190660344</v>
+        <v>122306.5212586192</v>
       </c>
       <c r="E6" t="n">
-        <v>137294.0190660344</v>
+        <v>155934.1212586191</v>
       </c>
       <c r="F6" t="n">
-        <v>137294.0190660344</v>
+        <v>155934.1212586192</v>
       </c>
       <c r="G6" t="n">
-        <v>24463.19823172827</v>
+        <v>84245.03926029464</v>
       </c>
       <c r="H6" t="n">
-        <v>188414.3190419142</v>
+        <v>188414.3190419143</v>
       </c>
       <c r="I6" t="n">
-        <v>188414.3190419142</v>
+        <v>188414.3190419144</v>
       </c>
       <c r="J6" t="n">
-        <v>10337.39055313448</v>
+        <v>-46730.89123564697</v>
       </c>
       <c r="K6" t="n">
         <v>188414.3190419143</v>
@@ -26552,16 +26554,16 @@
         <v>188414.3190419142</v>
       </c>
       <c r="M6" t="n">
-        <v>188414.3190419142</v>
+        <v>188414.3190419144</v>
       </c>
       <c r="N6" t="n">
         <v>188414.3190419142</v>
       </c>
       <c r="O6" t="n">
-        <v>137294.0190660344</v>
+        <v>155934.1212586191</v>
       </c>
       <c r="P6" t="n">
-        <v>137294.0190660344</v>
+        <v>155934.1212586192</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26811,7 +26813,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876011</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876011</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>322.9626549797665</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>388.01385847248</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>382.8939578476548</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>506.7576310804626</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>806.0327202118984</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>275.9823256003942</v>
       </c>
       <c r="P8" t="n">
-        <v>653.1084262398209</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606444</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7417458120015</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>630.0464180483591</v>
       </c>
       <c r="N11" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M14" t="n">
-        <v>192.4160227002418</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.7306752811506</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>404.8081827057627</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969938</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>197.5373662309376</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>191.6381265752678</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,7 +37320,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>106.3043917586367</v>
+        <v>462.7739363632859</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>540.8056218692396</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>485.8622255806802</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>321.0228275868496</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>331.7858150452194</v>
       </c>
       <c r="P42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M44" t="n">
-        <v>653.1084262398209</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>65.97103288402172</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7417458120015</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>29.51326903606408</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861811.2941875923</v>
+        <v>859893.57652903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246665</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2820057.507897159</v>
+        <v>2820057.507897161</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7416600.522562487</v>
+        <v>7416600.522562485</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3483750877238</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -670,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>57.75199410995062</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -712,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068049</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -898,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>302.0701791173007</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>226.0158089564188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>9.919095082966491</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1138,22 +1138,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.83105835674517</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>332.1797090099271</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,10 +1372,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>243.8850116672399</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>161.5842476551447</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>223.0386329866858</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>225.0275833982057</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.14656565132002</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>116.7770917239385</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3853228702216</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>156.8831777552855</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.0898487279629</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>42.31046081014885</v>
       </c>
       <c r="W37" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>58.31517967031836</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>233.485564699307</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>186.5146679205624</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>40.77490860721769</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>123.0249089873118</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429398</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>178.6464323367731</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2406.980029273935</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="C2" t="n">
-        <v>2083.395812013608</v>
+        <v>1418.738599262851</v>
       </c>
       <c r="D2" t="n">
-        <v>1660.103191198608</v>
+        <v>995.4459784478518</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.126251346466</v>
+        <v>569.4690385957093</v>
       </c>
       <c r="F2" t="n">
-        <v>809.0020695358658</v>
+        <v>569.4690385957093</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6630071253144</v>
+        <v>165.1299761851579</v>
       </c>
       <c r="H2" t="n">
         <v>106.7946285993492</v>
@@ -4330,22 +4330,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>391.6307857727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>1107.139093748288</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>1996.873840865691</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>1996.873840865691</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N2" t="n">
-        <v>2886.608587983094</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O2" t="n">
-        <v>2886.608587983094</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="P2" t="n">
         <v>3594.887867141022</v>
@@ -4360,22 +4360,22 @@
         <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>3490.520573014162</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>3232.165663610574</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>3232.165663610574</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W2" t="n">
-        <v>3232.165663610574</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X2" t="n">
-        <v>3232.165663610574</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y2" t="n">
-        <v>2826.828393565465</v>
+        <v>1845.639329249551</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K3" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L3" t="n">
-        <v>662.38268391116</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M3" t="n">
-        <v>662.38268391116</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N3" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
         <v>1880.58538792333</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2087.834155794793</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C4" t="n">
-        <v>1915.861592673709</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D4" t="n">
-        <v>1752.54481980048</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E4" t="n">
-        <v>1586.336613953333</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F4" t="n">
-        <v>1414.474839727894</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>1414.474839727894</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>1414.474839727894</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727894</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952052</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.18309045231</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.368885422561</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>3594.887867141022</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T4" t="n">
-        <v>3583.655109090465</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U4" t="n">
-        <v>3303.47066059077</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V4" t="n">
-        <v>3021.759193198799</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W4" t="n">
-        <v>2746.906789371312</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X4" t="n">
-        <v>2504.342892817117</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y4" t="n">
-        <v>2278.000124506859</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2177.531292217814</v>
+        <v>1241.379265868279</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.630562231114</v>
+        <v>1241.379265868279</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.337941416114</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>787.4060653183195</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>787.4060653183195</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N5" t="n">
-        <v>1585.378458328099</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O5" t="n">
-        <v>2430.523108478911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>3138.802387636839</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
         <v>3594.887867141022</v>
@@ -4594,25 +4594,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3366.589070215347</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.099655341596</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.099655341596</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="X5" t="n">
-        <v>2597.379656509343</v>
+        <v>2066.564900204919</v>
       </c>
       <c r="Y5" t="n">
-        <v>2597.379656509343</v>
+        <v>1661.227630159809</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>934.0801731907511</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>934.0801731907511</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M6" t="n">
-        <v>934.0801731907511</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="N6" t="n">
-        <v>934.0801731907511</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O6" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
         <v>1880.58538792333</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.9768228924842</v>
+        <v>586.3547839794112</v>
       </c>
       <c r="C7" t="n">
-        <v>124.0042597714002</v>
+        <v>414.3822208583272</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0042597714002</v>
+        <v>414.3822208583272</v>
       </c>
       <c r="E7" t="n">
-        <v>124.0042597714002</v>
+        <v>248.1740150111807</v>
       </c>
       <c r="F7" t="n">
-        <v>124.0042597714002</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G7" t="n">
-        <v>124.0042597714002</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>124.0042597714002</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4749,28 +4749,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>1791.797776188157</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="U7" t="n">
-        <v>1511.613327688461</v>
+        <v>1801.991288775388</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.90186029649</v>
+        <v>1520.279821383417</v>
       </c>
       <c r="W7" t="n">
-        <v>955.0494564690027</v>
+        <v>1245.42741755593</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4855599148078</v>
+        <v>1002.863521001735</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.1427916045499</v>
+        <v>776.5207526914768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.453694912913</v>
+        <v>1201.005928266037</v>
       </c>
       <c r="C8" t="n">
-        <v>593.5529649262128</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="D8" t="n">
-        <v>170.260344111213</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="E8" t="n">
-        <v>106.7946285993492</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="F8" t="n">
-        <v>106.7946285993492</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
         <v>71.89775734282044</v>
@@ -4807,16 +4807,16 @@
         <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>1150.009524135215</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>1150.009524135215</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M8" t="n">
-        <v>1150.009524135215</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N8" t="n">
-        <v>2039.744271252618</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
         <v>2312.966773597008</v>
@@ -4831,25 +4831,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3269.595002058796</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U8" t="n">
-        <v>3011.240092655208</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V8" t="n">
-        <v>2653.750677781458</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W8" t="n">
-        <v>2257.359328081805</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.639329249552</v>
+        <v>2026.191562602677</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.302059204443</v>
+        <v>1620.854292557567</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L9" t="n">
-        <v>101.1158936885242</v>
+        <v>908.8313307212242</v>
       </c>
       <c r="M9" t="n">
-        <v>990.8506408059272</v>
+        <v>908.8313307212242</v>
       </c>
       <c r="N9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C10" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y10" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.453694912913</v>
+        <v>1219.959486670485</v>
       </c>
       <c r="C11" t="n">
-        <v>774.1051982793369</v>
+        <v>793.0587566837853</v>
       </c>
       <c r="D11" t="n">
-        <v>774.1051982793369</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="E11" t="n">
-        <v>774.1051982793369</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="F11" t="n">
-        <v>774.1051982793369</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="G11" t="n">
         <v>369.7661358687856</v>
@@ -5041,16 +5041,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>961.6325044602235</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M11" t="n">
-        <v>1585.378458328099</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N11" t="n">
         <v>1585.378458328099</v>
@@ -5059,7 +5059,7 @@
         <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3138.802387636839</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
         <v>3594.887867141022</v>
@@ -5068,25 +5068,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3269.595002058796</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.240092655208</v>
+        <v>3210.745884412781</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.750677781458</v>
+        <v>2853.256469539031</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.359328081805</v>
+        <v>2456.865119839378</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.639329249552</v>
+        <v>2045.145121007125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.302059204443</v>
+        <v>1639.807850962015</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>662.38268391116</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L12" t="n">
-        <v>1416.439911060551</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="M12" t="n">
-        <v>1416.439911060551</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O12" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P12" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>295.9768228924842</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0042597714002</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
         <v>71.89775734282044</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1773.192229807262</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="C14" t="n">
-        <v>1346.291499820562</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="D14" t="n">
-        <v>922.9988790055627</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="E14" t="n">
-        <v>497.0219391534202</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="F14" t="n">
-        <v>71.89775734282044</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>297.1893058142202</v>
       </c>
       <c r="H14" t="n">
         <v>71.89775734282044</v>
@@ -5278,19 +5278,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1677.140812435723</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>2566.875559553126</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N14" t="n">
-        <v>2749.74321699021</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
         <v>3594.887867141022</v>
@@ -5308,22 +5308,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U14" t="n">
-        <v>3367.587277849905</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V14" t="n">
-        <v>3010.097862976154</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W14" t="n">
-        <v>3010.097862976154</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X14" t="n">
-        <v>2598.377864143902</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y14" t="n">
-        <v>2193.040594098792</v>
+        <v>1544.669353331301</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L15" t="n">
-        <v>908.6965654257266</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M15" t="n">
-        <v>908.6965654257266</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.431312543129</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1662.745881489144</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.2543031032135</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032135</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299842</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828377</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2239.133351272169</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2068.998303791304</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1825.658956017204</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1545.474507517508</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.763040125537</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.763040125537</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.763040125537</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.420271815279</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,19 +5740,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5767,22 +5767,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3267.187818431212</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3267.187818431212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3267.187818431212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3100.979612584066</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3100.979612584066</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3457.353787143278</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3918.135197142811</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3746.162634021727</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3416.637655301351</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3244.775881075911</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291426</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291426</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791731</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.239754399759</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572272</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4278.387350572272</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>4108.301165854877</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076927</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982686</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6296,37 +6296,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.3883178919874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2077.20927118766</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1797.024822687964</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1515.313355295993</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1240.460951468506</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>997.897054914311</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>771.554286604053</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.840321740789</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.867758619705</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878298</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878298</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>255.9288232320537</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810561</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036461</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536766</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144794</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317307</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763113</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>991.7839914173002</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2001.004273426986</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7192,19 +7192,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>742.8905159778161</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>742.8905159778161</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1353.212892317521</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1078.360488490034</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1961.590884272477</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C41" t="n">
-        <v>1534.690154285777</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D41" t="n">
-        <v>1111.397533470777</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E41" t="n">
-        <v>685.4205936186348</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F41" t="n">
-        <v>260.296411808035</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G41" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
         <v>71.89775734282044</v>
@@ -7417,46 +7417,46 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.009524135215</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="M41" t="n">
-        <v>1467.822123446196</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="N41" t="n">
-        <v>1467.822123446196</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O41" t="n">
-        <v>2312.966773597008</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P41" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V41" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W41" t="n">
-        <v>3198.496517441369</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="X41" t="n">
-        <v>2786.776518609116</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y41" t="n">
-        <v>2381.439248564007</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>662.38268391116</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M42" t="n">
-        <v>662.38268391116</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.117431028563</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
         <v>1880.58538792333</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>295.9768228924842</v>
+        <v>579.0488675625733</v>
       </c>
       <c r="C43" t="n">
-        <v>124.0042597714002</v>
+        <v>407.0763044414893</v>
       </c>
       <c r="D43" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
         <v>71.89775734282044</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.797776188157</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U43" t="n">
-        <v>1511.613327688461</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.90186029649</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W43" t="n">
-        <v>955.0494564690027</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X43" t="n">
-        <v>712.4855599148078</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.1427916045499</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1677.140812435723</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>2566.875559553126</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N44" t="n">
-        <v>2632.186882108307</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="O44" t="n">
-        <v>3477.331532259119</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P44" t="n">
-        <v>3477.331532259119</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
         <v>3594.887867141022</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2353.323727591968</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>2235.817824109472</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>2131.977865624758</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>2027.275931897695</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>1933.630101580599</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>1839.576329798203</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>1786.200236560512</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>1786.200236560512</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>1786.200236560512</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K45" t="n">
-        <v>1786.200236560512</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L45" t="n">
-        <v>1786.200236560512</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M45" t="n">
-        <v>2675.934983677916</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N45" t="n">
-        <v>3565.669730795319</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="O45" t="n">
-        <v>3594.887867141022</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P45" t="n">
-        <v>3594.887867141022</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>3594.887867141022</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>3594.887867141022</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>3513.563619702277</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>3371.683683999955</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>3186.915487919592</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>2981.942349058858</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>2785.420971892075</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>2621.943625658738</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>2482.250737012031</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>352.382614465353</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178784</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>936.0015896197016</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>222.2901673022356</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>72.33713181853705</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>528.4187726313924</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>709.5614131731696</v>
       </c>
       <c r="N5" t="n">
-        <v>843.3123430463445</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8294,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>618.848654609434</v>
@@ -8303,16 +8303,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>353.1288432587613</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8057257768496</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,19 +8455,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>182.4677883227418</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197016</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>313.3732849564183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
@@ -8528,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>52.028355750294</v>
+        <v>585.938764630291</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975835</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>920.0649949987971</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178784</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>667.4776809477909</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>477.0462230292778</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>784.1890535317962</v>
+        <v>117.1049496173825</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8792,7 +8792,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178784</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846873</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N14" t="n">
-        <v>221.9944283264504</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.0649949987971</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>106.1558042476775</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>116.3607041079818</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>273.4990206093763</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9415,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.3512730059673</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,13 +9649,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,10 +9722,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>658.7845120283961</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>809.386345155451</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>721.0851395833404</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>481.4282914131709</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>500.16489571931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059673</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>279.576101048122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11065,10 +11065,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>40.04907938177816</v>
       </c>
       <c r="M41" t="n">
-        <v>358.4540904862814</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
-        <v>920.0649949987971</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>354.9577047674416</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178784</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846873</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>103.2506557184678</v>
+        <v>248.7173695686049</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11384,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>921.8187472975835</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>920.0649949987971</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>52.68515875828631</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>102.2833475991091</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.1377006307549</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22707,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>116.989515489549</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>29.75555135313303</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22950,19 +22950,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>160.2240614002187</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.1854451728328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>358.8861120968758</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>75.42308983400306</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>178.746711019593</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>94.18711265440709</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>71.85106175401975</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23548,16 +23548,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>30.74377691134609</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.421661528378557</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.3022489032168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.69401775693379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>84.02277654107348</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>12.50455128074728</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>236.5838919079025</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2309441183566</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>45.40878801874436</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>213.7810038658834</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -25690,7 +25690,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>351.6525275954389</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>65.23940003763323</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>213.7810038658834</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>566896.6549548549</v>
+        <v>566896.6549548546</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>566896.6549548549</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716588.7640002455</v>
+        <v>716588.7640002454</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716588.7640002455</v>
+        <v>716588.7640002454</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>716588.7640002455</v>
+        <v>716588.7640002454</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716588.7640002455</v>
+        <v>716588.7640002453</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716588.7640002453</v>
+        <v>716588.7640002454</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566896.6549548549</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566896.6549548549</v>
+        <v>566896.6549548547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211196.7930223967</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="C2" t="n">
         <v>211196.7930223968</v>
       </c>
       <c r="D2" t="n">
+        <v>211196.7930223967</v>
+      </c>
+      <c r="E2" t="n">
         <v>211196.7930223968</v>
-      </c>
-      <c r="E2" t="n">
-        <v>211196.7930223967</v>
       </c>
       <c r="F2" t="n">
         <v>211196.7930223968</v>
       </c>
       <c r="G2" t="n">
+        <v>266964.4414902874</v>
+      </c>
+      <c r="H2" t="n">
         <v>266964.4414902873</v>
       </c>
-      <c r="H2" t="n">
-        <v>266964.4414902874</v>
-      </c>
       <c r="I2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
         <v>266964.4414902874</v>
@@ -26343,19 +26343,19 @@
         <v>266964.4414902874</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="M2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="O2" t="n">
+        <v>211196.7930223966</v>
+      </c>
+      <c r="P2" t="n">
         <v>211196.7930223967</v>
-      </c>
-      <c r="P2" t="n">
-        <v>211196.7930223968</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="C4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
         <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="H4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="H4" t="n">
-        <v>800.060259943367</v>
-      </c>
-      <c r="I4" t="n">
-        <v>800.060259943367</v>
-      </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26484,28 +26484,28 @@
         <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
         <v>54642.29558054353</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178875.880416356</v>
+        <v>-179220.4250178449</v>
       </c>
       <c r="C6" t="n">
-        <v>122306.5212586192</v>
+        <v>121961.9766571303</v>
       </c>
       <c r="D6" t="n">
-        <v>122306.5212586192</v>
+        <v>121961.9766571301</v>
       </c>
       <c r="E6" t="n">
-        <v>155934.1212586191</v>
+        <v>155589.5766571303</v>
       </c>
       <c r="F6" t="n">
-        <v>155934.1212586192</v>
+        <v>155589.5766571302</v>
       </c>
       <c r="G6" t="n">
-        <v>84245.03926029464</v>
+        <v>84194.0085981103</v>
       </c>
       <c r="H6" t="n">
-        <v>188414.3190419143</v>
+        <v>188363.28837973</v>
       </c>
       <c r="I6" t="n">
-        <v>188414.3190419144</v>
+        <v>188363.28837973</v>
       </c>
       <c r="J6" t="n">
-        <v>-46730.89123564697</v>
+        <v>-46781.9218978313</v>
       </c>
       <c r="K6" t="n">
-        <v>188414.3190419143</v>
+        <v>188363.2883797301</v>
       </c>
       <c r="L6" t="n">
-        <v>188414.3190419142</v>
+        <v>188363.28837973</v>
       </c>
       <c r="M6" t="n">
-        <v>188414.3190419144</v>
+        <v>188363.28837973</v>
       </c>
       <c r="N6" t="n">
-        <v>188414.3190419142</v>
+        <v>188363.28837973</v>
       </c>
       <c r="O6" t="n">
-        <v>155934.1212586191</v>
+        <v>155589.5766571301</v>
       </c>
       <c r="P6" t="n">
-        <v>155934.1212586192</v>
+        <v>155589.5766571302</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26813,7 +26813,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876011</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876011</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>322.9626549797665</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>49.82204510430748</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="N5" t="n">
-        <v>806.0327202118984</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>596.4494207761006</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>331.7858150452196</v>
       </c>
       <c r="O6" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.03652542331</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>275.9823256003942</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>29.51326903606444</v>
+        <v>563.4236779160614</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>630.0464180483591</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>761.6739668175666</v>
+        <v>94.58986290315299</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852555</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N14" t="n">
-        <v>184.7148054920043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>82.98391452545532</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>94.5898629031531</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.2265984013693</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,13 +36369,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>771.0743027228281</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>459.6574502083422</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>462.7739363632859</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013693</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.737036949155233</v>
       </c>
       <c r="M41" t="n">
-        <v>321.0228275868496</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>331.7858150452194</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>65.97103288402172</v>
+        <v>211.4377467341589</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.51326903606408</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
